--- a/Mobile/coyni_mobile/resources/TestScript_iOS.xlsx
+++ b/Mobile/coyni_mobile/resources/TestScript_iOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/Anudeep/mobile21_12_2021/coyni-automation/Mobile/coyni_mobile/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/Anudeep/22_12_2021/coyni-automation/Mobile/coyni_mobile/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97222307-FD14-024F-9141-343EB248724C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525928A3-7896-F44C-AC01-757A990FEB42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>RunAllIterations</t>
-  </si>
-  <si>
-    <t>testdata.xls,login</t>
   </si>
   <si>
     <t>Login</t>
@@ -127,40 +124,10 @@
     <t>Verify SignUp with valid credentials</t>
   </si>
   <si>
-    <t>testdata.xls,SignUp</t>
-  </si>
-  <si>
     <t>SignUp</t>
   </si>
   <si>
     <t>Verify Create Account with Invalid Data</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.SignUpTest,
-testCreateAccountInvalidData,
--pcreateAccount,
--pfirstName,
--plastName,
--pemail,
--pphoneNumber,
--ppassword,
--pconfirmPassword,
--perrorMessage,
--pelementName</t>
-  </si>
-  <si>
-    <t>Verify field validation in create account</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.SignUpTest,
-testFieldValidationCreateAccount,
--pfirstName,
--plastName,
--pemail,
--pphoneNumber</t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
   <si>
     <t>4</t>
@@ -212,12 +179,128 @@
 -pamount,
 -pmessage</t>
   </si>
+  <si>
+    <t>testdata_iOS.xls,login</t>
+  </si>
+  <si>
+    <t>testdata_iOS.xls,SignUp</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testLogOut</t>
+  </si>
+  <si>
+    <t>Keywords3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.SignUpTest,
+testCreateAccountInvalidData,
+-pcreateAccount,
+-pfirstName,
+-plastName,
+-pemail,
+-pphoneNumber,
+-ppassword,
+-pconfirmPassword,
+-perrMessage,
+-pelementName</t>
+  </si>
+  <si>
+    <t>Verify Buy Tokens Bank</t>
+  </si>
+  <si>
+    <t>testdata_iOS.xls,tokenAccount</t>
+  </si>
+  <si>
+    <t>Buy Token</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.TokenAccountTest,
+testBuyTokenBank,
+-plast4Digits,
+-pbuyTokenHeading,
+-ppaymentMethod,
+-pAmount,
+-ppreviewHeading</t>
+  </si>
+  <si>
+    <t>Verify User Details View</t>
+  </si>
+  <si>
+    <t>User Details</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testUserDetailsView,
+-puserDetailsHeading</t>
+  </si>
+  <si>
+    <t>testdata_iOS.xls,profile</t>
+  </si>
+  <si>
+    <t>Verify Edit Address</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testEditAddress,
+-puserDetailsHeading,
+-ppinHeading,
+-ppin,
+-peditAddrHeading,
+-paddLine1,
+-paddline2,
+-pcity,
+-pstate,
+-pzipcode,
+-pcountry,
+-ptoastMessage</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Verify Edit Email</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testEditEmail,
+-puserDetailsHeading,
+-ppinHeading,
+-ppin,
+-peditEmailHeading,
+-pemail,
+-pnewEmail,
+-pcurrentEmailHeading,
+-pcode,
+-pnewEmailHeading,
+-pexpHeading</t>
+  </si>
+  <si>
+    <t>Verify Edit Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni_mobile.tests.CustomerProfileTest,
+testEditPhoneNumber,
+-puserDetailsHeading,
+-ppinHeading,
+-ppin,
+-peditPhoneHeading,
+-pphoneNumber,
+-pnewPhoneNumber,
+-pcurrentPhoneHeading,
+-pcode,
+-pnewPhoneHeading
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +320,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -281,11 +378,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -314,6 +408,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B5A830-0A38-42CE-920B-F809AB40B2F3}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,280 +746,413 @@
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.33203125" customWidth="1"/>
     <col min="9" max="9" width="35.6640625" customWidth="1"/>
+    <col min="10" max="10" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="80" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="176" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="I10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="182" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="168" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="288" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="176" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="168" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>40</v>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -927,13 +1160,13 @@
           <x14:formula1>
             <xm:f>lists!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D5</xm:sqref>
+          <xm:sqref>D1:D6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CA008B61-68DC-4AC4-A60C-AF362A9D4AA3}">
           <x14:formula1>
             <xm:f>lists!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B9</xm:sqref>
+          <xm:sqref>B1:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -961,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -969,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -978,52 +1211,52 @@
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="6:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mobile/coyni_mobile/resources/TestScript_iOS.xlsx
+++ b/Mobile/coyni_mobile/resources/TestScript_iOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/Anudeep/22_12_2021/coyni-automation/Mobile/coyni_mobile/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/mobile02_01_2022/coyni-automation/Mobile/coyni_mobile/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525928A3-7896-F44C-AC01-757A990FEB42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E07F6-D407-A04A-93D2-58107218839C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B5A830-0A38-42CE-920B-F809AB40B2F3}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -786,7 +786,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
@@ -814,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
@@ -841,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
@@ -948,7 +948,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
@@ -978,7 +978,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>42</v>
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>42</v>
@@ -1038,7 +1038,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1067,7 +1067,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
@@ -1097,7 +1097,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>48</v>
@@ -1138,7 +1138,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>46</v>
@@ -1166,7 +1166,7 @@
           <x14:formula1>
             <xm:f>lists!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B12</xm:sqref>
+          <xm:sqref>B1:B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Mobile/coyni_mobile/resources/TestScript_iOS.xlsx
+++ b/Mobile/coyni_mobile/resources/TestScript_iOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/mobile02_01_2022/coyni-automation/Mobile/coyni_mobile/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/Mobile_05_01_2022/coyni-automation/Mobile/coyni_mobile/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E07F6-D407-A04A-93D2-58107218839C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0344AD-CFE7-6246-B395-989FA9F7FC2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -294,6 +294,46 @@
 -pcode,
 -pnewPhoneHeading
 </t>
+  </si>
+  <si>
+    <t>Verify Buy Tokens with Bank</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.TokenAccountTest,
+testBuyTokenWithBank,
+-plast4Digits,
+-pbuyTokenHeading,
+-ppaymentMethod,
+-pAmount,
+-ppreviewHeading</t>
+  </si>
+  <si>
+    <t>Verify Buy Tokens with Credit Card</t>
+  </si>
+  <si>
+    <t>Verify Buy Tokens with Debit Card</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.TokenAccountTest,
+testBuyTokenWithCreditCard,
+-plast4Digits,
+-pcvvPopupHeading,
+-pcvv,
+-pbuyTokenHeading,
+-ppaymentMethod,
+-pAmount,
+-ppreviewHeading</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.TokenAccountTest,
+testBuyTokenWithDebitCard,
+-plast4Digits,
+-pcvvPopupHeading,
+-pcvv,
+-pbuyTokenHeading,
+-ppaymentMethod,
+-pAmount,
+-ppreviewHeading</t>
   </si>
 </sst>
 </file>
@@ -730,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B5A830-0A38-42CE-920B-F809AB40B2F3}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1166,7 @@
         <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>48</v>
@@ -1148,6 +1188,93 @@
       </c>
       <c r="I14" s="12" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1293,7 @@
           <x14:formula1>
             <xm:f>lists!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B13</xm:sqref>
+          <xm:sqref>B1:B17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1178,9 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621ECD84-1FD9-4C9B-A216-6F85DAE3E9BF}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Mobile/coyni_mobile/resources/TestScript_iOS.xlsx
+++ b/Mobile/coyni_mobile/resources/TestScript_iOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/Mobile_05_01_2022/coyni-automation/Mobile/coyni_mobile/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Documents/Mobile_07_01_2022/coyni-automation/Mobile/coyni_mobile/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0344AD-CFE7-6246-B395-989FA9F7FC2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F5536A-1B5B-6A4D-8AE0-C83B2F90FE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="102">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -97,9 +97,6 @@
 -ppassword,
 -ppin,
 -puserName</t>
-  </si>
-  <si>
-    <t>verify Forgot pin</t>
   </si>
   <si>
     <t>coyni_mobile.tests.LoginTest,
@@ -335,12 +332,258 @@
 -pAmount,
 -ppreviewHeading</t>
   </si>
+  <si>
+    <t>Forgot Password with valid credentials</t>
+  </si>
+  <si>
+    <t>forgotPassword-OTP</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testForgotPassword,
+-pforgotHeading,
+-pforgotContentHeading,
+-pemail,
+-pcode,
+-pcreateHeading,
+-pnewPassword,
+-pconfirmPassword,
+-pmessage,
+-pemailOtpHeading</t>
+  </si>
+  <si>
+    <t>Forgot Password with invalid credentials</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>forgotPassword</t>
+  </si>
+  <si>
+    <t>Forgot Password with invalid OTP credentials</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testForgotPasswordInvalidOTPCredentials,
+-pforgotHeading,
+-pforgotContentHeading,
+-pemail,
+-pemailOtpHeading,
+-perrMessage,
+-pcode,
+-presendMessage</t>
+  </si>
+  <si>
+    <t>Forgot Password with navigation option</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testForgotPasswordWithNavigationOption,
+-pforgotHeading,
+-pforgotContentHeading,
+-pemail,
+-pemailOtpHeading,
+-pcode,
+-pcreateHeading,
+-pnewPassword,
+-pconfirmPassword</t>
+  </si>
+  <si>
+    <t>testdata_iOS.xls,forgotPassword</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testForgotPasswordInvalidEmailCredentials,
+-pforgotHeading,
+-pforgotContentHeading,
+-pemail,
+-perrMessage,
+-pelementName</t>
+  </si>
+  <si>
+    <t>Retrieve Email with valid credentials</t>
+  </si>
+  <si>
+    <t>retrieveEmail</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testRetrieveEmail,
+-pretrieveEmailHeading,
+-pphoneNumber,
+-pfirstName,
+-plastName,
+-pphoneHeading,
+-pcode,
+-pexpAccountHeading</t>
+  </si>
+  <si>
+    <t>Retrieve Email with Invalid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni_mobile.tests.LoginTest,
+testRetrieveEmailWithInvalidCredentials,
+-pretrieveEmailHeading,
+-pphoneNumber,
+-pfirstName,
+-plastName,
+-perrMessage,
+-pelementName
+</t>
+  </si>
+  <si>
+    <t>Retrieve Email View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni_mobile.tests.LoginTest,
+testRetrieveEmailView,
+-pretrieveEmailHeading,
+-pphoneNumber,
+-pfirstName,
+-plastName,
+-ptryAgain
+</t>
+  </si>
+  <si>
+    <t>Retrieve Email with Invalid OTP Credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni_mobile.tests.LoginTest,
+testRetrieveEmailWithInvalidOTPCredentials,
+-pretrieveEmailHeading,
+-pphoneNumber,
+-pfirstName,
+-plastName,
+-pphoneHeading
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni_mobile.tests.LoginTest,
+testRetrieveEmailNavigationOptions,
+-pretrieveEmailHeading,
+-pphoneNumber,
+-pfirstName,
+-plastName,
+-pcode,
+-pexpAccountHeading
+</t>
+  </si>
+  <si>
+    <t>Retrieve Email with Field Validations</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testRetrieveEmailFieldValidations,
+-pretrieveEmailHeading,
+-pfirstName,
+-plastName</t>
+  </si>
+  <si>
+    <t>testdata_iOS.xls,retrieveEmail</t>
+  </si>
+  <si>
+    <t>Retrieve Email With Navigation Options</t>
+  </si>
+  <si>
+    <t>Verify Forgot Pin</t>
+  </si>
+  <si>
+    <t>forgotpin</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testLoginWithOutPin,
+-pemail,
+-ppassword</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testVerifyForgotPin,
+-pexpEnterYourPinHeading,
+-pexpForgotPinHeading,
+-pexpForgotPinDescrp</t>
+  </si>
+  <si>
+    <t>Verify Email</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testEmailVerify,
+-pexpEnterYourPinHeading,
+-pexpForgotPinHeading,
+-pexpVerifyEmailDecrp,
+-presendlbl,
+-potp</t>
+  </si>
+  <si>
+    <t>Verify Choose Your Pin</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testChooseYourPin,
+-pexpEnterYourPinHeading,
+-pexpForgotPinHeading,
+-pexpVerifyEmailDecrp,
+-presendlbl,
+-potp,
+-pexpChooseYourPinHeading</t>
+  </si>
+  <si>
+    <t>Verify Choose Your Pin With Back</t>
+  </si>
+  <si>
+    <t>Verify Confirm Your Pin</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testConfirmYourPin,
+-pexpEnterYourPinHeading,
+-pexpForgotPinHeading,
+-pexpVerifyEmailDecrp,
+-presendlbl,
+-potp,
+-pexpChooseYourPinHeading,
+-ppin,
+-pexpConfirmYourPinHeading</t>
+  </si>
+  <si>
+    <t>Verify Confirm Your Pin With Back</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testChooseYourPinWithBackNavigation,
+-pexpEnterYourPinHeading,
+-pexpForgotPinHeading,
+-pexpVerifyEmailDecrp,
+-presendlbl,
+-potp,
+-pexpChooseYourPinHeading,
+-potpagain,
+-ppin,
+-pexpConfirmYourPinHeading</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testConfirmYourPinWithBackNavigation,
+-pexpEnterYourPinHeading,
+-pexpForgotPinHeading,
+-pexpVerifyEmailDecrp,
+-presendlbl,
+-potp,
+-pexpChooseYourPinHeading,
+-ppin,
+-pexpConfirmYourPinHeading</t>
+  </si>
+  <si>
+    <t>verify Forgot pin login</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +617,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -418,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -454,6 +703,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -770,17 +1029,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B5A830-0A38-42CE-920B-F809AB40B2F3}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.1640625" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
@@ -818,18 +1077,18 @@
         <v>16</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="288" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -841,10 +1100,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -853,11 +1112,11 @@
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -880,11 +1139,11 @@
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+      <c r="B4" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -893,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -902,15 +1161,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -925,18 +1184,18 @@
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="80" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -951,21 +1210,21 @@
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="176" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -974,24 +1233,24 @@
         <v>9</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1003,25 +1262,25 @@
         <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1033,25 +1292,25 @@
         <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -1063,25 +1322,25 @@
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -1093,24 +1352,24 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="182" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -1119,28 +1378,28 @@
         <v>9</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="168" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -1149,27 +1408,27 @@
         <v>9</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="168" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -1178,27 +1437,27 @@
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
@@ -1210,24 +1469,24 @@
         <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -1239,24 +1498,24 @@
         <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
@@ -1268,13 +1527,457 @@
         <v>9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I17" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>61</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1996,7 @@
           <x14:formula1>
             <xm:f>lists!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B17</xm:sqref>
+          <xm:sqref>B1:B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
